--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.71453474153411</v>
+        <v>1.399915</v>
       </c>
       <c r="H2">
-        <v>5.71453474153411</v>
+        <v>4.199745</v>
       </c>
       <c r="I2">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="J2">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.83798033258315</v>
+        <v>10.004147</v>
       </c>
       <c r="N2">
-        <v>4.83798033258315</v>
+        <v>30.012441</v>
       </c>
       <c r="O2">
-        <v>0.3266695623474202</v>
+        <v>0.4957413074471153</v>
       </c>
       <c r="P2">
-        <v>0.3266695623474202</v>
+        <v>0.4957413074471153</v>
       </c>
       <c r="Q2">
-        <v>27.64680668940516</v>
+        <v>14.004955447505</v>
       </c>
       <c r="R2">
-        <v>27.64680668940516</v>
+        <v>126.044599027545</v>
       </c>
       <c r="S2">
-        <v>0.2382658279723618</v>
+        <v>0.07041121409519796</v>
       </c>
       <c r="T2">
-        <v>0.2382658279723618</v>
+        <v>0.07041121409519795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.71453474153411</v>
+        <v>1.399915</v>
       </c>
       <c r="H3">
-        <v>5.71453474153411</v>
+        <v>4.199745</v>
       </c>
       <c r="I3">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="J3">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.05610136515777</v>
+        <v>1.137802</v>
       </c>
       <c r="N3">
-        <v>1.05610136515777</v>
+        <v>3.413406</v>
       </c>
       <c r="O3">
-        <v>0.07130995726193814</v>
+        <v>0.05638216342642133</v>
       </c>
       <c r="P3">
-        <v>0.07130995726193814</v>
+        <v>0.05638216342642133</v>
       </c>
       <c r="Q3">
-        <v>6.035127941775678</v>
+        <v>1.59282608683</v>
       </c>
       <c r="R3">
-        <v>6.035127941775678</v>
+        <v>14.33543478147</v>
       </c>
       <c r="S3">
-        <v>0.05201196550910801</v>
+        <v>0.008008081070774392</v>
       </c>
       <c r="T3">
-        <v>0.05201196550910801</v>
+        <v>0.008008081070774392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.71453474153411</v>
+        <v>1.399915</v>
       </c>
       <c r="H4">
-        <v>5.71453474153411</v>
+        <v>4.199745</v>
       </c>
       <c r="I4">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="J4">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.436110309451688</v>
+        <v>0.5560033333333333</v>
       </c>
       <c r="N4">
-        <v>0.436110309451688</v>
+        <v>1.66801</v>
       </c>
       <c r="O4">
-        <v>0.02944699112650483</v>
+        <v>0.02755195614494878</v>
       </c>
       <c r="P4">
-        <v>0.02944699112650483</v>
+        <v>0.02755195614494878</v>
       </c>
       <c r="Q4">
-        <v>2.492167514502863</v>
+        <v>0.7783574063833333</v>
       </c>
       <c r="R4">
-        <v>2.492167514502863</v>
+        <v>7.005216657449999</v>
       </c>
       <c r="S4">
-        <v>0.02147800876100471</v>
+        <v>0.003913264143457412</v>
       </c>
       <c r="T4">
-        <v>0.02147800876100471</v>
+        <v>0.003913264143457412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.71453474153411</v>
+        <v>1.399915</v>
       </c>
       <c r="H5">
-        <v>5.71453474153411</v>
+        <v>4.199745</v>
       </c>
       <c r="I5">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="J5">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.47982058724021</v>
+        <v>8.482224</v>
       </c>
       <c r="N5">
-        <v>8.47982058724021</v>
+        <v>25.446672</v>
       </c>
       <c r="O5">
-        <v>0.5725734892641369</v>
+        <v>0.4203245729815145</v>
       </c>
       <c r="P5">
-        <v>0.5725734892641369</v>
+        <v>0.4203245729815145</v>
       </c>
       <c r="Q5">
-        <v>48.45822934776036</v>
+        <v>11.87439261096</v>
       </c>
       <c r="R5">
-        <v>48.45822934776036</v>
+        <v>106.86953349864</v>
       </c>
       <c r="S5">
-        <v>0.4176229199751801</v>
+        <v>0.05969961157782132</v>
       </c>
       <c r="T5">
-        <v>0.4176229199751801</v>
+        <v>0.0596996115778213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.12026296706813</v>
+        <v>5.864004666666666</v>
       </c>
       <c r="H6">
-        <v>2.12026296706813</v>
+        <v>17.592014</v>
       </c>
       <c r="I6">
-        <v>0.2706212777823454</v>
+        <v>0.5949484882293837</v>
       </c>
       <c r="J6">
-        <v>0.2706212777823454</v>
+        <v>0.5949484882293836</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.83798033258315</v>
+        <v>10.004147</v>
       </c>
       <c r="N6">
-        <v>4.83798033258315</v>
+        <v>30.012441</v>
       </c>
       <c r="O6">
-        <v>0.3266695623474202</v>
+        <v>0.4957413074471153</v>
       </c>
       <c r="P6">
-        <v>0.3266695623474202</v>
+        <v>0.4957413074471153</v>
       </c>
       <c r="Q6">
-        <v>10.25779053458001</v>
+        <v>58.66436469401934</v>
       </c>
       <c r="R6">
-        <v>10.25779053458001</v>
+        <v>527.979282246174</v>
       </c>
       <c r="S6">
-        <v>0.08840373437505841</v>
+        <v>0.2949405414185194</v>
       </c>
       <c r="T6">
-        <v>0.08840373437505841</v>
+        <v>0.2949405414185193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.12026296706813</v>
+        <v>5.864004666666666</v>
       </c>
       <c r="H7">
-        <v>2.12026296706813</v>
+        <v>17.592014</v>
       </c>
       <c r="I7">
-        <v>0.2706212777823454</v>
+        <v>0.5949484882293837</v>
       </c>
       <c r="J7">
-        <v>0.2706212777823454</v>
+        <v>0.5949484882293836</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.05610136515777</v>
+        <v>1.137802</v>
       </c>
       <c r="N7">
-        <v>1.05610136515777</v>
+        <v>3.413406</v>
       </c>
       <c r="O7">
-        <v>0.07130995726193814</v>
+        <v>0.05638216342642133</v>
       </c>
       <c r="P7">
-        <v>0.07130995726193814</v>
+        <v>0.05638216342642133</v>
       </c>
       <c r="Q7">
-        <v>2.239212614014116</v>
+        <v>6.672076237742666</v>
       </c>
       <c r="R7">
-        <v>2.239212614014116</v>
+        <v>60.048686139684</v>
       </c>
       <c r="S7">
-        <v>0.01929799175283014</v>
+        <v>0.03354448289365142</v>
       </c>
       <c r="T7">
-        <v>0.01929799175283014</v>
+        <v>0.03354448289365141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.12026296706813</v>
+        <v>5.864004666666666</v>
       </c>
       <c r="H8">
-        <v>2.12026296706813</v>
+        <v>17.592014</v>
       </c>
       <c r="I8">
-        <v>0.2706212777823454</v>
+        <v>0.5949484882293837</v>
       </c>
       <c r="J8">
-        <v>0.2706212777823454</v>
+        <v>0.5949484882293836</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.436110309451688</v>
+        <v>0.5560033333333333</v>
       </c>
       <c r="N8">
-        <v>0.436110309451688</v>
+        <v>1.66801</v>
       </c>
       <c r="O8">
-        <v>0.02944699112650483</v>
+        <v>0.02755195614494878</v>
       </c>
       <c r="P8">
-        <v>0.02944699112650483</v>
+        <v>0.02755195614494878</v>
       </c>
       <c r="Q8">
-        <v>0.9246685386870362</v>
+        <v>3.260406141348888</v>
       </c>
       <c r="R8">
-        <v>0.9246685386870362</v>
+        <v>29.34365527213999</v>
       </c>
       <c r="S8">
-        <v>0.007968982365500124</v>
+        <v>0.01639199465619955</v>
       </c>
       <c r="T8">
-        <v>0.007968982365500124</v>
+        <v>0.01639199465619955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.864004666666666</v>
+      </c>
+      <c r="H9">
+        <v>17.592014</v>
+      </c>
+      <c r="I9">
+        <v>0.5949484882293837</v>
+      </c>
+      <c r="J9">
+        <v>0.5949484882293836</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.482224</v>
+      </c>
+      <c r="N9">
+        <v>25.446672</v>
+      </c>
+      <c r="O9">
+        <v>0.4203245729815145</v>
+      </c>
+      <c r="P9">
+        <v>0.4203245729815145</v>
+      </c>
+      <c r="Q9">
+        <v>49.739801119712</v>
+      </c>
+      <c r="R9">
+        <v>447.6582100774079</v>
+      </c>
+      <c r="S9">
+        <v>0.2500714692610134</v>
+      </c>
+      <c r="T9">
+        <v>0.2500714692610133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3047273333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.9141819999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="J10">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.004147</v>
+      </c>
+      <c r="N10">
+        <v>30.012441</v>
+      </c>
+      <c r="O10">
+        <v>0.4957413074471153</v>
+      </c>
+      <c r="P10">
+        <v>0.4957413074471153</v>
+      </c>
+      <c r="Q10">
+        <v>3.048537037584667</v>
+      </c>
+      <c r="R10">
+        <v>27.436833338262</v>
+      </c>
+      <c r="S10">
+        <v>0.0153268030616088</v>
+      </c>
+      <c r="T10">
+        <v>0.0153268030616088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3047273333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.9141819999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="J11">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.137802</v>
+      </c>
+      <c r="N11">
+        <v>3.413406</v>
+      </c>
+      <c r="O11">
+        <v>0.05638216342642133</v>
+      </c>
+      <c r="P11">
+        <v>0.05638216342642133</v>
+      </c>
+      <c r="Q11">
+        <v>0.3467193693213333</v>
+      </c>
+      <c r="R11">
+        <v>3.120474323892</v>
+      </c>
+      <c r="S11">
+        <v>0.001743163827671126</v>
+      </c>
+      <c r="T11">
+        <v>0.001743163827671126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3047273333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.9141819999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="J12">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5560033333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.66801</v>
+      </c>
+      <c r="O12">
+        <v>0.02755195614494878</v>
+      </c>
+      <c r="P12">
+        <v>0.02755195614494878</v>
+      </c>
+      <c r="Q12">
+        <v>0.1694294130911111</v>
+      </c>
+      <c r="R12">
+        <v>1.52486471782</v>
+      </c>
+      <c r="S12">
+        <v>0.0008518221085313949</v>
+      </c>
+      <c r="T12">
+        <v>0.0008518221085313949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3047273333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.9141819999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="J13">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.482224</v>
+      </c>
+      <c r="N13">
+        <v>25.446672</v>
+      </c>
+      <c r="O13">
+        <v>0.4203245729815145</v>
+      </c>
+      <c r="P13">
+        <v>0.4203245729815145</v>
+      </c>
+      <c r="Q13">
+        <v>2.584765500256</v>
+      </c>
+      <c r="R13">
+        <v>23.262889502304</v>
+      </c>
+      <c r="S13">
+        <v>0.01299514858912525</v>
+      </c>
+      <c r="T13">
+        <v>0.01299514858912525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.287676333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.863029</v>
+      </c>
+      <c r="I14">
+        <v>0.2321024032964287</v>
+      </c>
+      <c r="J14">
+        <v>0.2321024032964286</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.004147</v>
+      </c>
+      <c r="N14">
+        <v>30.012441</v>
+      </c>
+      <c r="O14">
+        <v>0.4957413074471153</v>
+      </c>
+      <c r="P14">
+        <v>0.4957413074471153</v>
+      </c>
+      <c r="Q14">
+        <v>22.88625032708767</v>
+      </c>
+      <c r="R14">
+        <v>205.976252943789</v>
+      </c>
+      <c r="S14">
+        <v>0.1150627488717892</v>
+      </c>
+      <c r="T14">
+        <v>0.1150627488717892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.12026296706813</v>
-      </c>
-      <c r="H9">
-        <v>2.12026296706813</v>
-      </c>
-      <c r="I9">
-        <v>0.2706212777823454</v>
-      </c>
-      <c r="J9">
-        <v>0.2706212777823454</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.47982058724021</v>
-      </c>
-      <c r="N9">
-        <v>8.47982058724021</v>
-      </c>
-      <c r="O9">
-        <v>0.5725734892641369</v>
-      </c>
-      <c r="P9">
-        <v>0.5725734892641369</v>
-      </c>
-      <c r="Q9">
-        <v>17.97944955850734</v>
-      </c>
-      <c r="R9">
-        <v>17.97944955850734</v>
-      </c>
-      <c r="S9">
-        <v>0.1549505692889568</v>
-      </c>
-      <c r="T9">
-        <v>0.1549505692889568</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.287676333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.863029</v>
+      </c>
+      <c r="I15">
+        <v>0.2321024032964287</v>
+      </c>
+      <c r="J15">
+        <v>0.2321024032964286</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.137802</v>
+      </c>
+      <c r="N15">
+        <v>3.413406</v>
+      </c>
+      <c r="O15">
+        <v>0.05638216342642133</v>
+      </c>
+      <c r="P15">
+        <v>0.05638216342642133</v>
+      </c>
+      <c r="Q15">
+        <v>2.602922707419333</v>
+      </c>
+      <c r="R15">
+        <v>23.426304366774</v>
+      </c>
+      <c r="S15">
+        <v>0.01308643563432439</v>
+      </c>
+      <c r="T15">
+        <v>0.01308643563432439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.287676333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.863029</v>
+      </c>
+      <c r="I16">
+        <v>0.2321024032964287</v>
+      </c>
+      <c r="J16">
+        <v>0.2321024032964286</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5560033333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.66801</v>
+      </c>
+      <c r="O16">
+        <v>0.02755195614494878</v>
+      </c>
+      <c r="P16">
+        <v>0.02755195614494878</v>
+      </c>
+      <c r="Q16">
+        <v>1.271955666921111</v>
+      </c>
+      <c r="R16">
+        <v>11.44760100229</v>
+      </c>
+      <c r="S16">
+        <v>0.006394875236760417</v>
+      </c>
+      <c r="T16">
+        <v>0.006394875236760416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.287676333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.863029</v>
+      </c>
+      <c r="I17">
+        <v>0.2321024032964287</v>
+      </c>
+      <c r="J17">
+        <v>0.2321024032964286</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.482224</v>
+      </c>
+      <c r="N17">
+        <v>25.446672</v>
+      </c>
+      <c r="O17">
+        <v>0.4203245729815145</v>
+      </c>
+      <c r="P17">
+        <v>0.4203245729815145</v>
+      </c>
+      <c r="Q17">
+        <v>19.404583098832</v>
+      </c>
+      <c r="R17">
+        <v>174.641247889488</v>
+      </c>
+      <c r="S17">
+        <v>0.09755834355355465</v>
+      </c>
+      <c r="T17">
+        <v>0.09755834355355464</v>
       </c>
     </row>
   </sheetData>
